--- a/3.b.WordFrequency/TFIDF-K-means/clustered_data.xlsx
+++ b/3.b.WordFrequency/TFIDF-K-means/clustered_data.xlsx
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -773,7 +773,7 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1334,7 +1334,7 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1408,7 +1408,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -1519,7 +1519,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -1815,7 +1815,7 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
@@ -2111,7 +2111,7 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -2185,7 +2185,7 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49">
@@ -2259,7 +2259,7 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
@@ -2783,7 +2783,7 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
@@ -2865,7 +2865,7 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2908,7 +2908,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
@@ -2951,7 +2951,7 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69">
@@ -3025,7 +3025,7 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78">
@@ -3364,7 +3364,7 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
@@ -3401,7 +3401,7 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
@@ -3438,7 +3438,7 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82">
@@ -3513,7 +3513,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83">
@@ -3550,7 +3550,7 @@
         </is>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84">
@@ -3587,7 +3587,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85">
@@ -3624,7 +3624,7 @@
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86">
@@ -3661,7 +3661,7 @@
         </is>
       </c>
       <c r="I86" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87">
@@ -3735,7 +3735,7 @@
         </is>
       </c>
       <c r="I88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
@@ -3809,7 +3809,7 @@
         </is>
       </c>
       <c r="I90" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92">
@@ -3884,7 +3884,7 @@
         </is>
       </c>
       <c r="I92" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93">
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="I93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
@@ -3959,7 +3959,7 @@
         </is>
       </c>
       <c r="I94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95">
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104">
@@ -4342,7 +4342,7 @@
         </is>
       </c>
       <c r="I104" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -4379,7 +4379,7 @@
         </is>
       </c>
       <c r="I105" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -4416,7 +4416,7 @@
         </is>
       </c>
       <c r="I106" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107">
@@ -4453,7 +4453,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -4490,7 +4490,7 @@
         </is>
       </c>
       <c r="I108" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109">
@@ -4566,7 +4566,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111">
@@ -4606,7 +4606,7 @@
         </is>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112">
@@ -4644,7 +4644,7 @@
         </is>
       </c>
       <c r="I112" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113">
@@ -4681,7 +4681,7 @@
         </is>
       </c>
       <c r="I113" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -4718,7 +4718,7 @@
         </is>
       </c>
       <c r="I114" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115">
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="I115" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116">
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="I118" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119">
@@ -5014,7 +5014,7 @@
         </is>
       </c>
       <c r="I122" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -5051,7 +5051,7 @@
         </is>
       </c>
       <c r="I123" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124">
@@ -5125,7 +5125,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126">
@@ -5162,7 +5162,7 @@
         </is>
       </c>
       <c r="I126" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127">
@@ -5273,7 +5273,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130">
@@ -5310,7 +5310,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131">
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="I131" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134">
@@ -5458,7 +5458,7 @@
         </is>
       </c>
       <c r="I134" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135">
@@ -5569,7 +5569,7 @@
         </is>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138">
@@ -5606,7 +5606,7 @@
         </is>
       </c>
       <c r="I138" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139">
@@ -5643,7 +5643,7 @@
         </is>
       </c>
       <c r="I139" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142">
@@ -5763,7 +5763,7 @@
         </is>
       </c>
       <c r="I142" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143">
@@ -5800,7 +5800,7 @@
         </is>
       </c>
       <c r="I143" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -5875,7 +5875,7 @@
         </is>
       </c>
       <c r="I145" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146">
@@ -6060,7 +6060,7 @@
         </is>
       </c>
       <c r="I150" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151">
@@ -6097,7 +6097,7 @@
         </is>
       </c>
       <c r="I151" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152">
@@ -6134,7 +6134,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155">
@@ -6251,7 +6251,7 @@
         </is>
       </c>
       <c r="I155" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156">
@@ -6288,7 +6288,7 @@
         </is>
       </c>
       <c r="I156" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157">
@@ -6325,7 +6325,7 @@
         </is>
       </c>
       <c r="I157" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -6405,7 +6405,7 @@
         </is>
       </c>
       <c r="I159" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160">
@@ -6442,7 +6442,7 @@
         </is>
       </c>
       <c r="I160" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
@@ -6479,7 +6479,7 @@
         </is>
       </c>
       <c r="I161" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -6561,7 +6561,7 @@
         </is>
       </c>
       <c r="I163" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164">
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="I168" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169">
@@ -6809,7 +6809,7 @@
         </is>
       </c>
       <c r="I169" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="170">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="I170" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -6883,7 +6883,7 @@
         </is>
       </c>
       <c r="I171" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="I173" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="174">
@@ -6994,7 +6994,7 @@
         </is>
       </c>
       <c r="I174" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="175">
@@ -7068,7 +7068,7 @@
         </is>
       </c>
       <c r="I176" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="177">
@@ -7143,7 +7143,7 @@
         </is>
       </c>
       <c r="I178" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179">
@@ -7180,7 +7180,7 @@
         </is>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180">
@@ -7217,7 +7217,7 @@
         </is>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181">
@@ -7254,7 +7254,7 @@
         </is>
       </c>
       <c r="I181" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182">
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="I182" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183">
@@ -7403,7 +7403,7 @@
         </is>
       </c>
       <c r="I185" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="186">
@@ -7440,7 +7440,7 @@
         </is>
       </c>
       <c r="I186" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187">
@@ -7477,7 +7477,7 @@
         </is>
       </c>
       <c r="I187" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188">
@@ -7514,7 +7514,7 @@
         </is>
       </c>
       <c r="I188" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
@@ -7588,7 +7588,7 @@
         </is>
       </c>
       <c r="I190" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191">
@@ -7625,7 +7625,7 @@
         </is>
       </c>
       <c r="I191" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192">
@@ -7662,7 +7662,7 @@
         </is>
       </c>
       <c r="I192" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193">
@@ -7699,7 +7699,7 @@
         </is>
       </c>
       <c r="I193" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194">
@@ -7736,7 +7736,7 @@
         </is>
       </c>
       <c r="I194" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="195">
@@ -7773,7 +7773,7 @@
         </is>
       </c>
       <c r="I195" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="196">
@@ -7884,7 +7884,7 @@
         </is>
       </c>
       <c r="I198" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="199">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="I199" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="200">
@@ -7958,7 +7958,7 @@
         </is>
       </c>
       <c r="I200" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="I201" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202">
@@ -8070,7 +8070,7 @@
         </is>
       </c>
       <c r="I203" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="204">
@@ -8107,7 +8107,7 @@
         </is>
       </c>
       <c r="I204" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205">
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="I206" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="207">
@@ -8220,7 +8220,7 @@
         </is>
       </c>
       <c r="I207" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="208">
@@ -8260,7 +8260,7 @@
         </is>
       </c>
       <c r="I208" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209">
@@ -8297,7 +8297,7 @@
         </is>
       </c>
       <c r="I209" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210">
@@ -8334,7 +8334,7 @@
         </is>
       </c>
       <c r="I210" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="212">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="I213" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="214">
@@ -8483,7 +8483,7 @@
         </is>
       </c>
       <c r="I214" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="215">
@@ -8520,7 +8520,7 @@
         </is>
       </c>
       <c r="I215" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -8557,7 +8557,7 @@
         </is>
       </c>
       <c r="I216" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="217">
@@ -8594,7 +8594,7 @@
         </is>
       </c>
       <c r="I217" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="218">
@@ -8631,7 +8631,7 @@
         </is>
       </c>
       <c r="I218" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="219">
@@ -8705,7 +8705,7 @@
         </is>
       </c>
       <c r="I220" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -8853,7 +8853,7 @@
         </is>
       </c>
       <c r="I224" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="225">
@@ -8927,7 +8927,7 @@
         </is>
       </c>
       <c r="I226" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227">
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="I227" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="228">
@@ -9010,7 +9010,7 @@
         </is>
       </c>
       <c r="I228" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229">
@@ -9159,7 +9159,7 @@
         </is>
       </c>
       <c r="I232" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233">
@@ -9233,7 +9233,7 @@
         </is>
       </c>
       <c r="I234" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="235">
@@ -9381,7 +9381,7 @@
         </is>
       </c>
       <c r="I238" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239">
@@ -9418,7 +9418,7 @@
         </is>
       </c>
       <c r="I239" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240">
@@ -9455,7 +9455,7 @@
         </is>
       </c>
       <c r="I240" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -9492,7 +9492,7 @@
         </is>
       </c>
       <c r="I241" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242">
@@ -9529,7 +9529,7 @@
         </is>
       </c>
       <c r="I242" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="243">
@@ -9566,7 +9566,7 @@
         </is>
       </c>
       <c r="I243" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244">
@@ -9603,7 +9603,7 @@
         </is>
       </c>
       <c r="I244" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -9640,7 +9640,7 @@
         </is>
       </c>
       <c r="I245" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -9715,7 +9715,7 @@
         </is>
       </c>
       <c r="I247" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="248">
@@ -9789,7 +9789,7 @@
         </is>
       </c>
       <c r="I249" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250">
@@ -9937,7 +9937,7 @@
         </is>
       </c>
       <c r="I253" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="254">
@@ -9974,7 +9974,7 @@
         </is>
       </c>
       <c r="I254" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255">
@@ -10011,7 +10011,7 @@
         </is>
       </c>
       <c r="I255" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256">
@@ -10085,7 +10085,7 @@
         </is>
       </c>
       <c r="I257" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="258">
@@ -10122,7 +10122,7 @@
         </is>
       </c>
       <c r="I258" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="259">
@@ -10270,7 +10270,7 @@
         </is>
       </c>
       <c r="I262" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="263">
@@ -10307,7 +10307,7 @@
         </is>
       </c>
       <c r="I263" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="264">
@@ -10344,7 +10344,7 @@
         </is>
       </c>
       <c r="I264" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="265">
@@ -10381,7 +10381,7 @@
         </is>
       </c>
       <c r="I265" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="266">
@@ -10418,7 +10418,7 @@
         </is>
       </c>
       <c r="I266" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="267">
@@ -10529,7 +10529,7 @@
         </is>
       </c>
       <c r="I269" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="270">
@@ -10566,7 +10566,7 @@
         </is>
       </c>
       <c r="I270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="I271" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="272">
@@ -10677,7 +10677,7 @@
         </is>
       </c>
       <c r="I273" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="274">
@@ -10714,7 +10714,7 @@
         </is>
       </c>
       <c r="I274" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="275">
@@ -10751,7 +10751,7 @@
         </is>
       </c>
       <c r="I275" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="276">
@@ -10825,7 +10825,7 @@
         </is>
       </c>
       <c r="I277" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="278">
@@ -10862,7 +10862,7 @@
         </is>
       </c>
       <c r="I278" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="279">
@@ -10899,7 +10899,7 @@
         </is>
       </c>
       <c r="I279" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="280">
@@ -10973,7 +10973,7 @@
         </is>
       </c>
       <c r="I281" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="282">
@@ -11010,7 +11010,7 @@
         </is>
       </c>
       <c r="I282" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="I285" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="286">
@@ -11195,7 +11195,7 @@
         </is>
       </c>
       <c r="I287" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="288">
@@ -11270,7 +11270,7 @@
         </is>
       </c>
       <c r="I289" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="290">
@@ -11307,7 +11307,7 @@
         </is>
       </c>
       <c r="I290" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="291">
@@ -11344,7 +11344,7 @@
         </is>
       </c>
       <c r="I291" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -11381,7 +11381,7 @@
         </is>
       </c>
       <c r="I292" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="293">
@@ -11492,7 +11492,7 @@
         </is>
       </c>
       <c r="I295" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -11529,7 +11529,7 @@
         </is>
       </c>
       <c r="I296" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="297">
@@ -11603,7 +11603,7 @@
         </is>
       </c>
       <c r="I298" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="299">
@@ -11677,7 +11677,7 @@
         </is>
       </c>
       <c r="I300" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -11752,7 +11752,7 @@
         </is>
       </c>
       <c r="I302" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="303">
@@ -11789,7 +11789,7 @@
         </is>
       </c>
       <c r="I303" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="304">
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="I304" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="305">
@@ -11863,7 +11863,7 @@
         </is>
       </c>
       <c r="I305" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="306">
@@ -11937,7 +11937,7 @@
         </is>
       </c>
       <c r="I307" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="308">
@@ -12051,7 +12051,7 @@
         </is>
       </c>
       <c r="I310" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="311">
@@ -12131,7 +12131,7 @@
         </is>
       </c>
       <c r="I312" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -12172,7 +12172,7 @@
         </is>
       </c>
       <c r="I313" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="I315" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="316">
@@ -12283,7 +12283,7 @@
         </is>
       </c>
       <c r="I316" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="317">
@@ -12320,7 +12320,7 @@
         </is>
       </c>
       <c r="I317" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="318">
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="I318" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="319">
@@ -12397,7 +12397,7 @@
         </is>
       </c>
       <c r="I319" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="320">
@@ -12435,7 +12435,7 @@
         </is>
       </c>
       <c r="I320" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="321">
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="I323" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="324">
@@ -12584,7 +12584,7 @@
         </is>
       </c>
       <c r="I324" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="I325" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="326">
@@ -12658,7 +12658,7 @@
         </is>
       </c>
       <c r="I326" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327">
@@ -12698,7 +12698,7 @@
         </is>
       </c>
       <c r="I327" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="328">
@@ -12735,7 +12735,7 @@
         </is>
       </c>
       <c r="I328" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="329">
@@ -12772,7 +12772,7 @@
         </is>
       </c>
       <c r="I329" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="330">
@@ -12809,7 +12809,7 @@
         </is>
       </c>
       <c r="I330" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="331">
@@ -12920,7 +12920,7 @@
         </is>
       </c>
       <c r="I333" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="334">
@@ -12957,7 +12957,7 @@
         </is>
       </c>
       <c r="I334" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="335">
@@ -13031,7 +13031,7 @@
         </is>
       </c>
       <c r="I336" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="337">
@@ -13108,7 +13108,7 @@
         </is>
       </c>
       <c r="I338" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -13145,7 +13145,7 @@
         </is>
       </c>
       <c r="I339" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="340">
@@ -13219,7 +13219,7 @@
         </is>
       </c>
       <c r="I341" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="342">
@@ -13404,7 +13404,7 @@
         </is>
       </c>
       <c r="I346" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
@@ -13441,7 +13441,7 @@
         </is>
       </c>
       <c r="I347" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="348">
@@ -13478,7 +13478,7 @@
         </is>
       </c>
       <c r="I348" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
@@ -13515,7 +13515,7 @@
         </is>
       </c>
       <c r="I349" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="350">
@@ -13589,7 +13589,7 @@
         </is>
       </c>
       <c r="I351" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -13663,7 +13663,7 @@
         </is>
       </c>
       <c r="I353" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
@@ -13774,7 +13774,7 @@
         </is>
       </c>
       <c r="I356" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -13848,7 +13848,7 @@
         </is>
       </c>
       <c r="I358" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="359">
@@ -13922,7 +13922,7 @@
         </is>
       </c>
       <c r="I360" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="361">
@@ -13959,7 +13959,7 @@
         </is>
       </c>
       <c r="I361" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="362">
@@ -14036,7 +14036,7 @@
         </is>
       </c>
       <c r="I363" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
@@ -14073,7 +14073,7 @@
         </is>
       </c>
       <c r="I364" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="365">
@@ -14110,7 +14110,7 @@
         </is>
       </c>
       <c r="I365" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="366">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="I368" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="369">
@@ -14295,7 +14295,7 @@
         </is>
       </c>
       <c r="I370" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="371">
@@ -14332,7 +14332,7 @@
         </is>
       </c>
       <c r="I371" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="372">
@@ -14455,7 +14455,7 @@
         </is>
       </c>
       <c r="I374" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="375">
@@ -14495,7 +14495,7 @@
         </is>
       </c>
       <c r="I375" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="376">
@@ -14532,7 +14532,7 @@
         </is>
       </c>
       <c r="I376" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377">
@@ -14613,7 +14613,7 @@
         </is>
       </c>
       <c r="I378" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="379">
@@ -14650,7 +14650,7 @@
         </is>
       </c>
       <c r="I379" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="380">
@@ -14687,7 +14687,7 @@
         </is>
       </c>
       <c r="I380" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
@@ -14761,7 +14761,7 @@
         </is>
       </c>
       <c r="I382" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="383">
@@ -14835,7 +14835,7 @@
         </is>
       </c>
       <c r="I384" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="385">
@@ -14909,7 +14909,7 @@
         </is>
       </c>
       <c r="I386" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="387">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="I387" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="388">
@@ -14983,7 +14983,7 @@
         </is>
       </c>
       <c r="I388" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="389">
@@ -15020,7 +15020,7 @@
         </is>
       </c>
       <c r="I389" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
@@ -15057,7 +15057,7 @@
         </is>
       </c>
       <c r="I390" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="391">
@@ -15094,7 +15094,7 @@
         </is>
       </c>
       <c r="I391" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="392">
@@ -15131,7 +15131,7 @@
         </is>
       </c>
       <c r="I392" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="393">
@@ -15279,7 +15279,7 @@
         </is>
       </c>
       <c r="I396" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="397">
@@ -15316,7 +15316,7 @@
         </is>
       </c>
       <c r="I397" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="398">
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="I398" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="399">
@@ -15418,7 +15418,7 @@
         </is>
       </c>
       <c r="I399" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400">
@@ -15492,7 +15492,7 @@
         </is>
       </c>
       <c r="I401" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="402">
@@ -15529,7 +15529,7 @@
         </is>
       </c>
       <c r="I402" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="403">
@@ -15566,7 +15566,7 @@
         </is>
       </c>
       <c r="I403" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="404">
@@ -15603,7 +15603,7 @@
         </is>
       </c>
       <c r="I404" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="405">
@@ -15640,7 +15640,7 @@
         </is>
       </c>
       <c r="I405" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="406">
@@ -15677,7 +15677,7 @@
         </is>
       </c>
       <c r="I406" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407">
@@ -15714,7 +15714,7 @@
         </is>
       </c>
       <c r="I407" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="408">
@@ -15788,7 +15788,7 @@
         </is>
       </c>
       <c r="I409" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="410">
@@ -15863,7 +15863,7 @@
         </is>
       </c>
       <c r="I411" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="412">
@@ -15905,7 +15905,7 @@
         </is>
       </c>
       <c r="I412" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="413">
@@ -15945,7 +15945,7 @@
         </is>
       </c>
       <c r="I413" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
@@ -16093,7 +16093,7 @@
         </is>
       </c>
       <c r="I417" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="418">
@@ -16130,7 +16130,7 @@
         </is>
       </c>
       <c r="I418" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="419">
@@ -16207,7 +16207,7 @@
         </is>
       </c>
       <c r="I420" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="421">
@@ -16290,7 +16290,7 @@
         </is>
       </c>
       <c r="I422" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="423">
@@ -16337,7 +16337,7 @@
         </is>
       </c>
       <c r="I423" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="424">
@@ -16400,7 +16400,7 @@
         </is>
       </c>
       <c r="I424" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="I425" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="426">
@@ -16529,7 +16529,7 @@
         </is>
       </c>
       <c r="I426" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="427">
@@ -16566,7 +16566,7 @@
         </is>
       </c>
       <c r="I427" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="428">
@@ -16603,7 +16603,7 @@
         </is>
       </c>
       <c r="I428" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="429">
@@ -16640,7 +16640,7 @@
         </is>
       </c>
       <c r="I429" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="430">
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="I430" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="431">
@@ -16751,7 +16751,7 @@
         </is>
       </c>
       <c r="I432" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="433">
@@ -16936,7 +16936,7 @@
         </is>
       </c>
       <c r="I437" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
@@ -17012,7 +17012,7 @@
         </is>
       </c>
       <c r="I439" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="440">
@@ -17049,7 +17049,7 @@
         </is>
       </c>
       <c r="I440" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
@@ -17123,7 +17123,7 @@
         </is>
       </c>
       <c r="I442" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="443">
@@ -17160,7 +17160,7 @@
         </is>
       </c>
       <c r="I443" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="444">
@@ -17256,7 +17256,7 @@
         </is>
       </c>
       <c r="I445" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="446">
@@ -17314,7 +17314,7 @@
         </is>
       </c>
       <c r="I446" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="447">
@@ -17372,7 +17372,7 @@
         </is>
       </c>
       <c r="I447" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="448">
@@ -17409,7 +17409,7 @@
         </is>
       </c>
       <c r="I448" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="I449" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="450">
@@ -17483,7 +17483,7 @@
         </is>
       </c>
       <c r="I450" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="451">
@@ -17520,7 +17520,7 @@
         </is>
       </c>
       <c r="I451" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="452">
@@ -17594,7 +17594,7 @@
         </is>
       </c>
       <c r="I453" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="454">
@@ -17631,7 +17631,7 @@
         </is>
       </c>
       <c r="I454" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="455">
@@ -17743,7 +17743,7 @@
         </is>
       </c>
       <c r="I457" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="458">
@@ -17780,7 +17780,7 @@
         </is>
       </c>
       <c r="I458" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459">
@@ -17928,7 +17928,7 @@
         </is>
       </c>
       <c r="I462" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="463">
@@ -17965,7 +17965,7 @@
         </is>
       </c>
       <c r="I463" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
@@ -18039,7 +18039,7 @@
         </is>
       </c>
       <c r="I465" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="466">
@@ -18076,7 +18076,7 @@
         </is>
       </c>
       <c r="I466" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="467">
@@ -18113,7 +18113,7 @@
         </is>
       </c>
       <c r="I467" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="468">
@@ -18150,7 +18150,7 @@
         </is>
       </c>
       <c r="I468" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="469">
@@ -18187,7 +18187,7 @@
         </is>
       </c>
       <c r="I469" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="470">
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="I471" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="472">
@@ -18298,7 +18298,7 @@
         </is>
       </c>
       <c r="I472" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="473">
@@ -18372,7 +18372,7 @@
         </is>
       </c>
       <c r="I474" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="475">
@@ -18409,7 +18409,7 @@
         </is>
       </c>
       <c r="I475" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="476">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="I476" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="477">
@@ -18520,7 +18520,7 @@
         </is>
       </c>
       <c r="I478" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="479">
@@ -18558,7 +18558,7 @@
         </is>
       </c>
       <c r="I479" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="480">
@@ -18635,7 +18635,7 @@
         </is>
       </c>
       <c r="I481" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="482">
@@ -18672,7 +18672,7 @@
         </is>
       </c>
       <c r="I482" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="483">
@@ -18718,7 +18718,7 @@
         </is>
       </c>
       <c r="I483" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="484">
@@ -18763,7 +18763,7 @@
         </is>
       </c>
       <c r="I484" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="485">
@@ -18800,7 +18800,7 @@
         </is>
       </c>
       <c r="I485" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486">
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="I486" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="487">
@@ -18874,7 +18874,7 @@
         </is>
       </c>
       <c r="I487" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="488">
@@ -18920,7 +18920,7 @@
         </is>
       </c>
       <c r="I488" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="489">
@@ -19000,7 +19000,7 @@
         </is>
       </c>
       <c r="I490" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="491">
@@ -19075,7 +19075,7 @@
         </is>
       </c>
       <c r="I492" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493">
@@ -19112,7 +19112,7 @@
         </is>
       </c>
       <c r="I493" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="494">
@@ -19149,7 +19149,7 @@
         </is>
       </c>
       <c r="I494" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="495">
@@ -19260,7 +19260,7 @@
         </is>
       </c>
       <c r="I497" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="498">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="I500" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="501">
@@ -19519,7 +19519,7 @@
         </is>
       </c>
       <c r="I504" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505">
@@ -19556,7 +19556,7 @@
         </is>
       </c>
       <c r="I505" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506">
@@ -19630,7 +19630,7 @@
         </is>
       </c>
       <c r="I507" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="508">
@@ -19667,7 +19667,7 @@
         </is>
       </c>
       <c r="I508" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="509">
@@ -19704,7 +19704,7 @@
         </is>
       </c>
       <c r="I509" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="510">
@@ -19741,7 +19741,7 @@
         </is>
       </c>
       <c r="I510" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="511">
@@ -19817,7 +19817,7 @@
         </is>
       </c>
       <c r="I512" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513">
@@ -20047,7 +20047,7 @@
         </is>
       </c>
       <c r="I518" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="519">
@@ -20132,7 +20132,7 @@
         </is>
       </c>
       <c r="I520" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="521">
@@ -20206,7 +20206,7 @@
         </is>
       </c>
       <c r="I522" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="523">
@@ -20243,7 +20243,7 @@
         </is>
       </c>
       <c r="I523" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="524">
@@ -20280,7 +20280,7 @@
         </is>
       </c>
       <c r="I524" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="525">
@@ -20393,7 +20393,7 @@
         </is>
       </c>
       <c r="I527" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="528">
@@ -20430,7 +20430,7 @@
         </is>
       </c>
       <c r="I528" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="529">
@@ -20541,7 +20541,7 @@
         </is>
       </c>
       <c r="I531" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532">
@@ -20578,7 +20578,7 @@
         </is>
       </c>
       <c r="I532" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="533">
@@ -20615,7 +20615,7 @@
         </is>
       </c>
       <c r="I533" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="534">
@@ -20763,7 +20763,7 @@
         </is>
       </c>
       <c r="I537" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538">
@@ -20800,7 +20800,7 @@
         </is>
       </c>
       <c r="I538" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539">
@@ -20837,7 +20837,7 @@
         </is>
       </c>
       <c r="I539" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="540">
@@ -20874,7 +20874,7 @@
         </is>
       </c>
       <c r="I540" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="541">
@@ -20985,7 +20985,7 @@
         </is>
       </c>
       <c r="I543" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544">
@@ -21059,7 +21059,7 @@
         </is>
       </c>
       <c r="I545" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="546">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="I546" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="547">
@@ -21142,7 +21142,7 @@
         </is>
       </c>
       <c r="I547" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="548">
@@ -21185,7 +21185,7 @@
         </is>
       </c>
       <c r="I548" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="549">
@@ -21222,7 +21222,7 @@
         </is>
       </c>
       <c r="I549" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="550">
@@ -21409,7 +21409,7 @@
         </is>
       </c>
       <c r="I554" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="555">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="I555" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="556">
@@ -21594,7 +21594,7 @@
         </is>
       </c>
       <c r="I559" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
@@ -21705,7 +21705,7 @@
         </is>
       </c>
       <c r="I562" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="563">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="I563" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="564">
@@ -21783,7 +21783,7 @@
         </is>
       </c>
       <c r="I564" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="565">
@@ -21820,7 +21820,7 @@
         </is>
       </c>
       <c r="I565" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566">
@@ -21857,7 +21857,7 @@
         </is>
       </c>
       <c r="I566" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567">
@@ -21894,7 +21894,7 @@
         </is>
       </c>
       <c r="I567" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="568">
@@ -21931,7 +21931,7 @@
         </is>
       </c>
       <c r="I568" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="569">
@@ -21968,7 +21968,7 @@
         </is>
       </c>
       <c r="I569" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570">
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="I570" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="571">
@@ -22042,7 +22042,7 @@
         </is>
       </c>
       <c r="I571" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572">
@@ -22079,7 +22079,7 @@
         </is>
       </c>
       <c r="I572" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="573">
@@ -22116,7 +22116,7 @@
         </is>
       </c>
       <c r="I573" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574">
@@ -22190,7 +22190,7 @@
         </is>
       </c>
       <c r="I575" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576">
@@ -22227,7 +22227,7 @@
         </is>
       </c>
       <c r="I576" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577">
@@ -22264,7 +22264,7 @@
         </is>
       </c>
       <c r="I577" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="578">
@@ -22301,7 +22301,7 @@
         </is>
       </c>
       <c r="I578" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="579">
@@ -22341,7 +22341,7 @@
         </is>
       </c>
       <c r="I579" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="580">
@@ -22378,7 +22378,7 @@
         </is>
       </c>
       <c r="I580" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581">
@@ -22415,7 +22415,7 @@
         </is>
       </c>
       <c r="I581" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582">
@@ -22604,7 +22604,7 @@
         </is>
       </c>
       <c r="I586" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587">
@@ -22641,7 +22641,7 @@
         </is>
       </c>
       <c r="I587" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="588">
@@ -22678,7 +22678,7 @@
         </is>
       </c>
       <c r="I588" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="589">
@@ -22715,7 +22715,7 @@
         </is>
       </c>
       <c r="I589" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="590">
@@ -22752,7 +22752,7 @@
         </is>
       </c>
       <c r="I590" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="591">
@@ -22789,7 +22789,7 @@
         </is>
       </c>
       <c r="I591" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="592">
@@ -22863,7 +22863,7 @@
         </is>
       </c>
       <c r="I593" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594">
@@ -22900,7 +22900,7 @@
         </is>
       </c>
       <c r="I594" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="595">
@@ -22937,7 +22937,7 @@
         </is>
       </c>
       <c r="I595" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="596">
@@ -22974,7 +22974,7 @@
         </is>
       </c>
       <c r="I596" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="597">
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="I599" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="600">
@@ -23159,7 +23159,7 @@
         </is>
       </c>
       <c r="I601" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602">
@@ -23198,7 +23198,7 @@
         </is>
       </c>
       <c r="I602" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="603">
@@ -23235,7 +23235,7 @@
         </is>
       </c>
       <c r="I603" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="604">
@@ -23272,7 +23272,7 @@
         </is>
       </c>
       <c r="I604" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="605">
@@ -23309,7 +23309,7 @@
         </is>
       </c>
       <c r="I605" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="606">
@@ -23383,7 +23383,7 @@
         </is>
       </c>
       <c r="I607" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="608">
@@ -23420,7 +23420,7 @@
         </is>
       </c>
       <c r="I608" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="609">
@@ -23457,7 +23457,7 @@
         </is>
       </c>
       <c r="I609" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="610">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="I610" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611">
@@ -23531,7 +23531,7 @@
         </is>
       </c>
       <c r="I611" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="612">
@@ -23605,7 +23605,7 @@
         </is>
       </c>
       <c r="I613" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="614">
@@ -23642,7 +23642,7 @@
         </is>
       </c>
       <c r="I614" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="615">
@@ -23679,7 +23679,7 @@
         </is>
       </c>
       <c r="I615" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="616">
@@ -23724,7 +23724,7 @@
         </is>
       </c>
       <c r="I616" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="617">
@@ -23798,7 +23798,7 @@
         </is>
       </c>
       <c r="I618" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619">
@@ -23835,7 +23835,7 @@
         </is>
       </c>
       <c r="I619" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620">
@@ -23909,7 +23909,7 @@
         </is>
       </c>
       <c r="I621" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="I622" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="623">
@@ -23983,7 +23983,7 @@
         </is>
       </c>
       <c r="I623" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="624">
@@ -24020,7 +24020,7 @@
         </is>
       </c>
       <c r="I624" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="625">
@@ -24094,7 +24094,7 @@
         </is>
       </c>
       <c r="I626" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="627">
@@ -24131,7 +24131,7 @@
         </is>
       </c>
       <c r="I627" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="628">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="I629" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="630">
@@ -24242,7 +24242,7 @@
         </is>
       </c>
       <c r="I630" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="631">
@@ -24316,7 +24316,7 @@
         </is>
       </c>
       <c r="I632" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="633">
@@ -24390,7 +24390,7 @@
         </is>
       </c>
       <c r="I634" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="635">
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="I635" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="636">
@@ -24501,7 +24501,7 @@
         </is>
       </c>
       <c r="I637" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="638">
@@ -24653,7 +24653,7 @@
         </is>
       </c>
       <c r="I640" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="641">
@@ -24690,7 +24690,7 @@
         </is>
       </c>
       <c r="I641" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="642">
@@ -24764,7 +24764,7 @@
         </is>
       </c>
       <c r="I643" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="644">
@@ -24838,7 +24838,7 @@
         </is>
       </c>
       <c r="I645" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="646">
@@ -24875,7 +24875,7 @@
         </is>
       </c>
       <c r="I646" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="647">
@@ -25023,7 +25023,7 @@
         </is>
       </c>
       <c r="I650" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="651">
@@ -25060,7 +25060,7 @@
         </is>
       </c>
       <c r="I651" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="652">
@@ -25097,7 +25097,7 @@
         </is>
       </c>
       <c r="I652" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="653">
@@ -25393,7 +25393,7 @@
         </is>
       </c>
       <c r="I660" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="661">
@@ -25508,7 +25508,7 @@
         </is>
       </c>
       <c r="I663" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="I664" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="665">
@@ -25585,7 +25585,7 @@
         </is>
       </c>
       <c r="I665" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="666">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="I668" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="669">
@@ -25733,7 +25733,7 @@
         </is>
       </c>
       <c r="I669" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="670">
@@ -25844,7 +25844,7 @@
         </is>
       </c>
       <c r="I672" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="673">
@@ -25881,7 +25881,7 @@
         </is>
       </c>
       <c r="I673" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="674">
@@ -25918,7 +25918,7 @@
         </is>
       </c>
       <c r="I674" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="675">
@@ -26029,7 +26029,7 @@
         </is>
       </c>
       <c r="I677" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678">
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="I678" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="679">
@@ -26103,7 +26103,7 @@
         </is>
       </c>
       <c r="I679" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680">
@@ -26140,7 +26140,7 @@
         </is>
       </c>
       <c r="I680" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681">
@@ -26177,7 +26177,7 @@
         </is>
       </c>
       <c r="I681" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="682">
@@ -26254,7 +26254,7 @@
         </is>
       </c>
       <c r="I683" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="684">
@@ -26300,7 +26300,7 @@
         </is>
       </c>
       <c r="I684" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="685">
@@ -26339,7 +26339,7 @@
         </is>
       </c>
       <c r="I685" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="686">
@@ -26376,7 +26376,7 @@
         </is>
       </c>
       <c r="I686" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="687">
@@ -26413,7 +26413,7 @@
         </is>
       </c>
       <c r="I687" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="688">
@@ -26450,7 +26450,7 @@
         </is>
       </c>
       <c r="I688" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="689">
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="I689" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="690">
@@ -26561,7 +26561,7 @@
         </is>
       </c>
       <c r="I691" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692">
@@ -26598,7 +26598,7 @@
         </is>
       </c>
       <c r="I692" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="693">
@@ -26635,7 +26635,7 @@
         </is>
       </c>
       <c r="I693" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="694">
@@ -26709,7 +26709,7 @@
         </is>
       </c>
       <c r="I695" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="I696" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="697">
@@ -26783,7 +26783,7 @@
         </is>
       </c>
       <c r="I697" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="698">
@@ -26820,7 +26820,7 @@
         </is>
       </c>
       <c r="I698" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="699">
@@ -26857,7 +26857,7 @@
         </is>
       </c>
       <c r="I699" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="700">
@@ -26894,7 +26894,7 @@
         </is>
       </c>
       <c r="I700" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="701">
@@ -27042,7 +27042,7 @@
         </is>
       </c>
       <c r="I704" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="705">
@@ -27085,7 +27085,7 @@
         </is>
       </c>
       <c r="I705" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="706">
@@ -27129,7 +27129,7 @@
         </is>
       </c>
       <c r="I706" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="707">
@@ -27170,7 +27170,7 @@
         </is>
       </c>
       <c r="I707" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="708">
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="I708" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="709">
@@ -27281,7 +27281,7 @@
         </is>
       </c>
       <c r="I710" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="711">
@@ -27355,7 +27355,7 @@
         </is>
       </c>
       <c r="I712" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="713">
@@ -27392,7 +27392,7 @@
         </is>
       </c>
       <c r="I713" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714">
@@ -27429,7 +27429,7 @@
         </is>
       </c>
       <c r="I714" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="715">
@@ -27466,7 +27466,7 @@
         </is>
       </c>
       <c r="I715" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="716">
@@ -27503,7 +27503,7 @@
         </is>
       </c>
       <c r="I716" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="717">
@@ -27614,7 +27614,7 @@
         </is>
       </c>
       <c r="I719" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="720">
@@ -27688,7 +27688,7 @@
         </is>
       </c>
       <c r="I721" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="722">
@@ -27725,7 +27725,7 @@
         </is>
       </c>
       <c r="I722" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723">
@@ -27762,7 +27762,7 @@
         </is>
       </c>
       <c r="I723" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724">
@@ -27799,7 +27799,7 @@
         </is>
       </c>
       <c r="I724" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="725">
@@ -27873,7 +27873,7 @@
         </is>
       </c>
       <c r="I726" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="727">
@@ -27910,7 +27910,7 @@
         </is>
       </c>
       <c r="I727" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="728">
@@ -27947,7 +27947,7 @@
         </is>
       </c>
       <c r="I728" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="729">
@@ -28021,7 +28021,7 @@
         </is>
       </c>
       <c r="I730" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="731">
@@ -28133,7 +28133,7 @@
         </is>
       </c>
       <c r="I733" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="734">
@@ -28170,7 +28170,7 @@
         </is>
       </c>
       <c r="I734" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="735">
@@ -28207,7 +28207,7 @@
         </is>
       </c>
       <c r="I735" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="736">
@@ -28281,7 +28281,7 @@
         </is>
       </c>
       <c r="I737" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738">
@@ -28392,7 +28392,7 @@
         </is>
       </c>
       <c r="I740" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="741">
@@ -28431,7 +28431,7 @@
         </is>
       </c>
       <c r="I741" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="742">
@@ -28468,7 +28468,7 @@
         </is>
       </c>
       <c r="I742" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743">
@@ -28542,7 +28542,7 @@
         </is>
       </c>
       <c r="I744" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="745">
@@ -28616,7 +28616,7 @@
         </is>
       </c>
       <c r="I746" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="747">
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="I749" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="750">
@@ -28764,7 +28764,7 @@
         </is>
       </c>
       <c r="I750" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="751">
@@ -28801,7 +28801,7 @@
         </is>
       </c>
       <c r="I751" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="752">
@@ -28875,7 +28875,7 @@
         </is>
       </c>
       <c r="I753" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="754">
@@ -28912,7 +28912,7 @@
         </is>
       </c>
       <c r="I754" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="755">
@@ -28949,7 +28949,7 @@
         </is>
       </c>
       <c r="I755" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="756">
@@ -28987,7 +28987,7 @@
         </is>
       </c>
       <c r="I756" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="757">
@@ -29027,7 +29027,7 @@
         </is>
       </c>
       <c r="I757" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="758">
@@ -29067,7 +29067,7 @@
         </is>
       </c>
       <c r="I758" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759">
@@ -29224,7 +29224,7 @@
         </is>
       </c>
       <c r="I762" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763">
@@ -29261,7 +29261,7 @@
         </is>
       </c>
       <c r="I763" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="764">
@@ -29373,7 +29373,7 @@
         </is>
       </c>
       <c r="I766" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="767">
@@ -29410,7 +29410,7 @@
         </is>
       </c>
       <c r="I767" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="768">
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="I768" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="769">
@@ -29558,7 +29558,7 @@
         </is>
       </c>
       <c r="I771" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="772">
@@ -29632,7 +29632,7 @@
         </is>
       </c>
       <c r="I773" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="774">
@@ -29669,7 +29669,7 @@
         </is>
       </c>
       <c r="I774" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="775">
@@ -29780,7 +29780,7 @@
         </is>
       </c>
       <c r="I777" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778">
@@ -29854,7 +29854,7 @@
         </is>
       </c>
       <c r="I779" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="780">
@@ -29891,7 +29891,7 @@
         </is>
       </c>
       <c r="I780" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="781">
@@ -29928,7 +29928,7 @@
         </is>
       </c>
       <c r="I781" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="782">
@@ -30002,7 +30002,7 @@
         </is>
       </c>
       <c r="I783" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="784">
@@ -30048,7 +30048,7 @@
         </is>
       </c>
       <c r="I784" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="785">
@@ -30085,7 +30085,7 @@
         </is>
       </c>
       <c r="I785" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786">
@@ -30233,7 +30233,7 @@
         </is>
       </c>
       <c r="I789" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="790">
@@ -30270,7 +30270,7 @@
         </is>
       </c>
       <c r="I790" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791">
@@ -30344,7 +30344,7 @@
         </is>
       </c>
       <c r="I792" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="793">
@@ -30500,7 +30500,7 @@
         </is>
       </c>
       <c r="I796" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797">
@@ -30579,7 +30579,7 @@
         </is>
       </c>
       <c r="I798" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="799">
@@ -30620,7 +30620,7 @@
         </is>
       </c>
       <c r="I799" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="800">
@@ -30663,7 +30663,7 @@
         </is>
       </c>
       <c r="I800" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="801">
@@ -30700,7 +30700,7 @@
         </is>
       </c>
       <c r="I801" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="802">
@@ -30737,7 +30737,7 @@
         </is>
       </c>
       <c r="I802" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="803">
@@ -30850,7 +30850,7 @@
         </is>
       </c>
       <c r="I805" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="806">
@@ -30962,7 +30962,7 @@
         </is>
       </c>
       <c r="I808" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="809">
@@ -31073,7 +31073,7 @@
         </is>
       </c>
       <c r="I811" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="812">
@@ -31184,7 +31184,7 @@
         </is>
       </c>
       <c r="I814" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="815">
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="I815" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="816">
@@ -31335,7 +31335,7 @@
         </is>
       </c>
       <c r="I818" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="819">
@@ -31526,7 +31526,7 @@
         </is>
       </c>
       <c r="I823" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824">
@@ -31638,7 +31638,7 @@
         </is>
       </c>
       <c r="I826" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="827">
@@ -31712,7 +31712,7 @@
         </is>
       </c>
       <c r="I828" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829">
@@ -31749,7 +31749,7 @@
         </is>
       </c>
       <c r="I829" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="830">
@@ -31786,7 +31786,7 @@
         </is>
       </c>
       <c r="I830" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="831">
@@ -31934,7 +31934,7 @@
         </is>
       </c>
       <c r="I834" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="835">
@@ -31971,7 +31971,7 @@
         </is>
       </c>
       <c r="I835" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="836">
@@ -32008,7 +32008,7 @@
         </is>
       </c>
       <c r="I836" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837">
@@ -32119,7 +32119,7 @@
         </is>
       </c>
       <c r="I839" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="840">
@@ -32156,7 +32156,7 @@
         </is>
       </c>
       <c r="I840" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="841">
@@ -32193,7 +32193,7 @@
         </is>
       </c>
       <c r="I841" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="842">
@@ -32230,7 +32230,7 @@
         </is>
       </c>
       <c r="I842" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="843">
@@ -32267,7 +32267,7 @@
         </is>
       </c>
       <c r="I843" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844">
@@ -32415,7 +32415,7 @@
         </is>
       </c>
       <c r="I847" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="848">
@@ -32452,7 +32452,7 @@
         </is>
       </c>
       <c r="I848" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="849">
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="I851" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="852">
@@ -32637,7 +32637,7 @@
         </is>
       </c>
       <c r="I853" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="854">
@@ -32674,7 +32674,7 @@
         </is>
       </c>
       <c r="I854" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="855">
@@ -32711,7 +32711,7 @@
         </is>
       </c>
       <c r="I855" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="856">
@@ -32748,7 +32748,7 @@
         </is>
       </c>
       <c r="I856" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="857">
@@ -32942,7 +32942,7 @@
         </is>
       </c>
       <c r="I861" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="862">
@@ -32979,7 +32979,7 @@
         </is>
       </c>
       <c r="I862" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="863">
@@ -33016,7 +33016,7 @@
         </is>
       </c>
       <c r="I863" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="864">
@@ -33167,7 +33167,7 @@
         </is>
       </c>
       <c r="I867" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="868">
@@ -33278,7 +33278,7 @@
         </is>
       </c>
       <c r="I870" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="871">
@@ -33315,7 +33315,7 @@
         </is>
       </c>
       <c r="I871" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="872">
@@ -33354,7 +33354,7 @@
         </is>
       </c>
       <c r="I872" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="873">
@@ -33465,7 +33465,7 @@
         </is>
       </c>
       <c r="I875" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="876">
@@ -33539,7 +33539,7 @@
         </is>
       </c>
       <c r="I877" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="878">
@@ -33576,7 +33576,7 @@
         </is>
       </c>
       <c r="I878" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="879">
@@ -33613,7 +33613,7 @@
         </is>
       </c>
       <c r="I879" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880">
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="I881" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="882">
@@ -33798,7 +33798,7 @@
         </is>
       </c>
       <c r="I884" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885">
@@ -33835,7 +33835,7 @@
         </is>
       </c>
       <c r="I885" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886">
@@ -33872,7 +33872,7 @@
         </is>
       </c>
       <c r="I886" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="887">
@@ -33993,7 +33993,7 @@
         </is>
       </c>
       <c r="I889" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="890">
@@ -34142,7 +34142,7 @@
         </is>
       </c>
       <c r="I893" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894">
@@ -34180,7 +34180,7 @@
         </is>
       </c>
       <c r="I894" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="895">
@@ -34217,7 +34217,7 @@
         </is>
       </c>
       <c r="I895" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896">
@@ -34254,7 +34254,7 @@
         </is>
       </c>
       <c r="I896" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="897">
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="I897" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="898">
@@ -34402,7 +34402,7 @@
         </is>
       </c>
       <c r="I900" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="901">
@@ -34439,7 +34439,7 @@
         </is>
       </c>
       <c r="I901" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="902">
@@ -34550,7 +34550,7 @@
         </is>
       </c>
       <c r="I904" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905">
@@ -34587,7 +34587,7 @@
         </is>
       </c>
       <c r="I905" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="906">
@@ -34624,7 +34624,7 @@
         </is>
       </c>
       <c r="I906" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907">
@@ -34699,7 +34699,7 @@
         </is>
       </c>
       <c r="I908" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="909">
@@ -34810,7 +34810,7 @@
         </is>
       </c>
       <c r="I911" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912">
@@ -34921,7 +34921,7 @@
         </is>
       </c>
       <c r="I914" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915">
@@ -34958,7 +34958,7 @@
         </is>
       </c>
       <c r="I915" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="916">
@@ -35145,7 +35145,7 @@
         </is>
       </c>
       <c r="I920" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="921">
@@ -35382,7 +35382,7 @@
         </is>
       </c>
       <c r="I926" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="927">
@@ -35604,7 +35604,7 @@
         </is>
       </c>
       <c r="I932" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="933">
@@ -35641,7 +35641,7 @@
         </is>
       </c>
       <c r="I933" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="934">
@@ -35678,7 +35678,7 @@
         </is>
       </c>
       <c r="I934" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="935">
@@ -35715,7 +35715,7 @@
         </is>
       </c>
       <c r="I935" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="936">
@@ -35789,7 +35789,7 @@
         </is>
       </c>
       <c r="I937" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="938">
@@ -35937,7 +35937,7 @@
         </is>
       </c>
       <c r="I941" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="942">
@@ -35974,7 +35974,7 @@
         </is>
       </c>
       <c r="I942" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="943">
@@ -36011,7 +36011,7 @@
         </is>
       </c>
       <c r="I943" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="944">
@@ -36358,7 +36358,7 @@
         </is>
       </c>
       <c r="I952" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="953">
@@ -36469,7 +36469,7 @@
         </is>
       </c>
       <c r="I955" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="956">
@@ -36513,7 +36513,7 @@
         </is>
       </c>
       <c r="I956" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="957">
@@ -36557,7 +36557,7 @@
         </is>
       </c>
       <c r="I957" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="958">
@@ -36644,7 +36644,7 @@
         </is>
       </c>
       <c r="I959" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="960">
@@ -36767,7 +36767,7 @@
         </is>
       </c>
       <c r="I962" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="963">
@@ -36804,7 +36804,7 @@
         </is>
       </c>
       <c r="I963" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="964">
@@ -36955,7 +36955,7 @@
         </is>
       </c>
       <c r="I967" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="968">
@@ -36992,7 +36992,7 @@
         </is>
       </c>
       <c r="I968" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="969">
@@ -37029,7 +37029,7 @@
         </is>
       </c>
       <c r="I969" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="970">
@@ -37066,7 +37066,7 @@
         </is>
       </c>
       <c r="I970" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="971">
@@ -37103,7 +37103,7 @@
         </is>
       </c>
       <c r="I971" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="972">
@@ -37177,7 +37177,7 @@
         </is>
       </c>
       <c r="I973" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="974">
@@ -37214,7 +37214,7 @@
         </is>
       </c>
       <c r="I974" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="975">
@@ -37288,7 +37288,7 @@
         </is>
       </c>
       <c r="I976" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="977">
@@ -37325,7 +37325,7 @@
         </is>
       </c>
       <c r="I977" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="978">
@@ -37515,7 +37515,7 @@
         </is>
       </c>
       <c r="I982" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="983">
@@ -37589,7 +37589,7 @@
         </is>
       </c>
       <c r="I984" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="985">
@@ -37667,7 +37667,7 @@
         </is>
       </c>
       <c r="I986" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="987">
@@ -37716,7 +37716,7 @@
         </is>
       </c>
       <c r="I987" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="988">
@@ -37762,7 +37762,7 @@
         </is>
       </c>
       <c r="I988" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="989">
@@ -37808,7 +37808,7 @@
         </is>
       </c>
       <c r="I989" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="990">
@@ -37848,7 +37848,7 @@
         </is>
       </c>
       <c r="I990" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="991">
@@ -37922,7 +37922,7 @@
         </is>
       </c>
       <c r="I992" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="993">
@@ -37996,7 +37996,7 @@
         </is>
       </c>
       <c r="I994" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="995">
@@ -38071,7 +38071,7 @@
         </is>
       </c>
       <c r="I996" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="997">
@@ -38182,7 +38182,7 @@
         </is>
       </c>
       <c r="I999" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1000">
@@ -38219,7 +38219,7 @@
         </is>
       </c>
       <c r="I1000" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1001">
@@ -38256,7 +38256,7 @@
         </is>
       </c>
       <c r="I1001" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1002">
@@ -38330,7 +38330,7 @@
         </is>
       </c>
       <c r="I1003" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1004">
@@ -38367,7 +38367,7 @@
         </is>
       </c>
       <c r="I1004" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1005">
@@ -38404,7 +38404,7 @@
         </is>
       </c>
       <c r="I1005" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1006">
@@ -38441,7 +38441,7 @@
         </is>
       </c>
       <c r="I1006" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1007">
@@ -38515,7 +38515,7 @@
         </is>
       </c>
       <c r="I1008" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1009">
@@ -38590,7 +38590,7 @@
         </is>
       </c>
       <c r="I1010" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1011">
@@ -38665,7 +38665,7 @@
         </is>
       </c>
       <c r="I1012" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1013">
@@ -38739,7 +38739,7 @@
         </is>
       </c>
       <c r="I1014" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1015">
@@ -38813,7 +38813,7 @@
         </is>
       </c>
       <c r="I1016" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1017">
@@ -38850,7 +38850,7 @@
         </is>
       </c>
       <c r="I1017" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1018">
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="I1018" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1019">
@@ -38924,7 +38924,7 @@
         </is>
       </c>
       <c r="I1019" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1020">
@@ -38961,7 +38961,7 @@
         </is>
       </c>
       <c r="I1020" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1021">
@@ -39035,7 +39035,7 @@
         </is>
       </c>
       <c r="I1022" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1023">
@@ -39183,7 +39183,7 @@
         </is>
       </c>
       <c r="I1026" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1027">
@@ -39220,7 +39220,7 @@
         </is>
       </c>
       <c r="I1027" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1028">
@@ -39331,7 +39331,7 @@
         </is>
       </c>
       <c r="I1030" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1031">
@@ -39405,7 +39405,7 @@
         </is>
       </c>
       <c r="I1032" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1033">
@@ -39442,7 +39442,7 @@
         </is>
       </c>
       <c r="I1033" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1034">
@@ -39517,7 +39517,7 @@
         </is>
       </c>
       <c r="I1035" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1036">
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="I1039" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1040">
@@ -39703,7 +39703,7 @@
         </is>
       </c>
       <c r="I1040" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1041">
@@ -39777,7 +39777,7 @@
         </is>
       </c>
       <c r="I1042" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1043">
@@ -39814,7 +39814,7 @@
         </is>
       </c>
       <c r="I1043" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1044">
@@ -39851,7 +39851,7 @@
         </is>
       </c>
       <c r="I1044" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1045">
@@ -39894,7 +39894,7 @@
         </is>
       </c>
       <c r="I1045" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1046">
@@ -39931,7 +39931,7 @@
         </is>
       </c>
       <c r="I1046" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1047">
@@ -39968,7 +39968,7 @@
         </is>
       </c>
       <c r="I1047" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1048">
@@ -40005,7 +40005,7 @@
         </is>
       </c>
       <c r="I1048" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1049">
@@ -40079,7 +40079,7 @@
         </is>
       </c>
       <c r="I1050" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1051">
@@ -40153,7 +40153,7 @@
         </is>
       </c>
       <c r="I1052" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1053">
@@ -40190,7 +40190,7 @@
         </is>
       </c>
       <c r="I1053" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1054">
@@ -40227,7 +40227,7 @@
         </is>
       </c>
       <c r="I1054" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1055">
@@ -40301,7 +40301,7 @@
         </is>
       </c>
       <c r="I1056" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1057">
@@ -40340,7 +40340,7 @@
         </is>
       </c>
       <c r="I1057" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1058">
@@ -40414,7 +40414,7 @@
         </is>
       </c>
       <c r="I1059" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1060">
@@ -40488,7 +40488,7 @@
         </is>
       </c>
       <c r="I1061" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1062">
@@ -40562,7 +40562,7 @@
         </is>
       </c>
       <c r="I1063" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1064">
@@ -40599,7 +40599,7 @@
         </is>
       </c>
       <c r="I1064" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1065">
@@ -40636,7 +40636,7 @@
         </is>
       </c>
       <c r="I1065" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1066">
@@ -40673,7 +40673,7 @@
         </is>
       </c>
       <c r="I1066" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1067">
@@ -40710,7 +40710,7 @@
         </is>
       </c>
       <c r="I1067" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1068">
@@ -40747,7 +40747,7 @@
         </is>
       </c>
       <c r="I1068" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1069">
@@ -40784,7 +40784,7 @@
         </is>
       </c>
       <c r="I1069" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1070">
@@ -40821,7 +40821,7 @@
         </is>
       </c>
       <c r="I1070" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1071">
@@ -40934,7 +40934,7 @@
         </is>
       </c>
       <c r="I1073" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1074">
@@ -40971,7 +40971,7 @@
         </is>
       </c>
       <c r="I1074" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1075">
@@ -41045,7 +41045,7 @@
         </is>
       </c>
       <c r="I1076" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1077">
@@ -41119,7 +41119,7 @@
         </is>
       </c>
       <c r="I1078" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1079">
@@ -41156,7 +41156,7 @@
         </is>
       </c>
       <c r="I1079" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1080">
@@ -41230,7 +41230,7 @@
         </is>
       </c>
       <c r="I1081" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1082">
@@ -41341,7 +41341,7 @@
         </is>
       </c>
       <c r="I1084" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1085">
@@ -41415,7 +41415,7 @@
         </is>
       </c>
       <c r="I1086" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1087">
@@ -41453,7 +41453,7 @@
         </is>
       </c>
       <c r="I1087" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1088">
@@ -41490,7 +41490,7 @@
         </is>
       </c>
       <c r="I1088" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1089">
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="I1089" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1090">
@@ -41638,7 +41638,7 @@
         </is>
       </c>
       <c r="I1092" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1093">
@@ -41712,7 +41712,7 @@
         </is>
       </c>
       <c r="I1094" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1095">
@@ -41751,7 +41751,7 @@
         </is>
       </c>
       <c r="I1095" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1096">
@@ -41825,7 +41825,7 @@
         </is>
       </c>
       <c r="I1097" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1098">
@@ -41899,7 +41899,7 @@
         </is>
       </c>
       <c r="I1099" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1100">
@@ -41936,7 +41936,7 @@
         </is>
       </c>
       <c r="I1100" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1101">
@@ -42010,7 +42010,7 @@
         </is>
       </c>
       <c r="I1102" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1103">
@@ -42047,7 +42047,7 @@
         </is>
       </c>
       <c r="I1103" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1104">
@@ -42084,7 +42084,7 @@
         </is>
       </c>
       <c r="I1104" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1105">
@@ -42121,7 +42121,7 @@
         </is>
       </c>
       <c r="I1105" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1106">
@@ -42199,7 +42199,7 @@
         </is>
       </c>
       <c r="I1107" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1108">
@@ -42240,7 +42240,7 @@
         </is>
       </c>
       <c r="I1108" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1109">
@@ -42277,7 +42277,7 @@
         </is>
       </c>
       <c r="I1109" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1110">
@@ -42314,7 +42314,7 @@
         </is>
       </c>
       <c r="I1110" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1111">
@@ -42351,7 +42351,7 @@
         </is>
       </c>
       <c r="I1111" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1112">
@@ -42388,7 +42388,7 @@
         </is>
       </c>
       <c r="I1112" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1113">
@@ -42501,7 +42501,7 @@
         </is>
       </c>
       <c r="I1115" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1116">
@@ -42653,7 +42653,7 @@
         </is>
       </c>
       <c r="I1119" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1120">
@@ -42690,7 +42690,7 @@
         </is>
       </c>
       <c r="I1120" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1121">
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="I1121" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1122">
@@ -42764,7 +42764,7 @@
         </is>
       </c>
       <c r="I1122" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1123">
@@ -42878,7 +42878,7 @@
         </is>
       </c>
       <c r="I1125" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1126">
@@ -42915,7 +42915,7 @@
         </is>
       </c>
       <c r="I1126" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1127">
@@ -42989,7 +42989,7 @@
         </is>
       </c>
       <c r="I1128" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1129">
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="I1129" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1130">
@@ -43063,7 +43063,7 @@
         </is>
       </c>
       <c r="I1130" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1131">
@@ -43100,7 +43100,7 @@
         </is>
       </c>
       <c r="I1131" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1132">
@@ -43137,7 +43137,7 @@
         </is>
       </c>
       <c r="I1132" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1133">
@@ -43174,7 +43174,7 @@
         </is>
       </c>
       <c r="I1133" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1134">
@@ -43211,7 +43211,7 @@
         </is>
       </c>
       <c r="I1134" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1135">
@@ -43248,7 +43248,7 @@
         </is>
       </c>
       <c r="I1135" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1136">
@@ -43285,7 +43285,7 @@
         </is>
       </c>
       <c r="I1136" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1137">
@@ -43322,7 +43322,7 @@
         </is>
       </c>
       <c r="I1137" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1138">
@@ -43359,7 +43359,7 @@
         </is>
       </c>
       <c r="I1138" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1139">
@@ -43433,7 +43433,7 @@
         </is>
       </c>
       <c r="I1140" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1141">
@@ -43544,7 +43544,7 @@
         </is>
       </c>
       <c r="I1143" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1144">
@@ -43618,7 +43618,7 @@
         </is>
       </c>
       <c r="I1145" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1146">
@@ -43655,7 +43655,7 @@
         </is>
       </c>
       <c r="I1146" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1147">
@@ -43692,7 +43692,7 @@
         </is>
       </c>
       <c r="I1147" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1148">
@@ -43729,7 +43729,7 @@
         </is>
       </c>
       <c r="I1148" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1149">
@@ -43766,7 +43766,7 @@
         </is>
       </c>
       <c r="I1149" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1150">
@@ -43803,7 +43803,7 @@
         </is>
       </c>
       <c r="I1150" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1151">
@@ -43877,7 +43877,7 @@
         </is>
       </c>
       <c r="I1152" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1153">
@@ -43914,7 +43914,7 @@
         </is>
       </c>
       <c r="I1153" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1154">
@@ -43951,7 +43951,7 @@
         </is>
       </c>
       <c r="I1154" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1155">
@@ -44025,7 +44025,7 @@
         </is>
       </c>
       <c r="I1156" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1157">
@@ -44099,7 +44099,7 @@
         </is>
       </c>
       <c r="I1158" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1159">
@@ -44136,7 +44136,7 @@
         </is>
       </c>
       <c r="I1159" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1160">
@@ -44210,7 +44210,7 @@
         </is>
       </c>
       <c r="I1161" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1162">
@@ -44321,7 +44321,7 @@
         </is>
       </c>
       <c r="I1164" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1165">
@@ -44358,7 +44358,7 @@
         </is>
       </c>
       <c r="I1165" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1166">
@@ -44506,7 +44506,7 @@
         </is>
       </c>
       <c r="I1169" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1170">
@@ -44543,7 +44543,7 @@
         </is>
       </c>
       <c r="I1170" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1171">
@@ -44691,7 +44691,7 @@
         </is>
       </c>
       <c r="I1174" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1175">
@@ -44740,7 +44740,7 @@
         </is>
       </c>
       <c r="I1175" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1176">
@@ -44817,7 +44817,7 @@
         </is>
       </c>
       <c r="I1177" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1178">
@@ -45123,7 +45123,7 @@
         </is>
       </c>
       <c r="I1185" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1186">
@@ -45160,7 +45160,7 @@
         </is>
       </c>
       <c r="I1186" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1187">
@@ -45309,7 +45309,7 @@
         </is>
       </c>
       <c r="I1190" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1191">
@@ -45383,7 +45383,7 @@
         </is>
       </c>
       <c r="I1192" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1193">
@@ -45420,7 +45420,7 @@
         </is>
       </c>
       <c r="I1193" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1194">
@@ -45457,7 +45457,7 @@
         </is>
       </c>
       <c r="I1194" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1195">
@@ -45531,7 +45531,7 @@
         </is>
       </c>
       <c r="I1196" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1197">
@@ -45568,7 +45568,7 @@
         </is>
       </c>
       <c r="I1197" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1198">
@@ -45605,7 +45605,7 @@
         </is>
       </c>
       <c r="I1198" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1199">
@@ -45679,7 +45679,7 @@
         </is>
       </c>
       <c r="I1200" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1201">
@@ -45753,7 +45753,7 @@
         </is>
       </c>
       <c r="I1202" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1203">
@@ -45864,7 +45864,7 @@
         </is>
       </c>
       <c r="I1205" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1206">
@@ -45938,7 +45938,7 @@
         </is>
       </c>
       <c r="I1207" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1208">
@@ -45975,7 +45975,7 @@
         </is>
       </c>
       <c r="I1208" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1209">
@@ -46049,7 +46049,7 @@
         </is>
       </c>
       <c r="I1210" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1211">
@@ -46123,7 +46123,7 @@
         </is>
       </c>
       <c r="I1212" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1213">
@@ -46160,7 +46160,7 @@
         </is>
       </c>
       <c r="I1213" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1214">
@@ -46234,7 +46234,7 @@
         </is>
       </c>
       <c r="I1215" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1216">
@@ -46271,7 +46271,7 @@
         </is>
       </c>
       <c r="I1216" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1217">
@@ -46345,7 +46345,7 @@
         </is>
       </c>
       <c r="I1218" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1219">
@@ -46419,7 +46419,7 @@
         </is>
       </c>
       <c r="I1220" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1221">
@@ -46493,7 +46493,7 @@
         </is>
       </c>
       <c r="I1222" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1223">
@@ -46530,7 +46530,7 @@
         </is>
       </c>
       <c r="I1223" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1224">
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="I1224" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1225">
@@ -46604,7 +46604,7 @@
         </is>
       </c>
       <c r="I1225" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1226">
@@ -46678,7 +46678,7 @@
         </is>
       </c>
       <c r="I1227" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1228">
@@ -46753,7 +46753,7 @@
         </is>
       </c>
       <c r="I1229" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1230">
@@ -46790,7 +46790,7 @@
         </is>
       </c>
       <c r="I1230" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1231">
@@ -46827,7 +46827,7 @@
         </is>
       </c>
       <c r="I1231" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1232">
@@ -46864,7 +46864,7 @@
         </is>
       </c>
       <c r="I1232" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1233">
@@ -46938,7 +46938,7 @@
         </is>
       </c>
       <c r="I1234" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1235">
@@ -46975,7 +46975,7 @@
         </is>
       </c>
       <c r="I1235" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1236">
@@ -47126,7 +47126,7 @@
         </is>
       </c>
       <c r="I1239" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1240">
@@ -47165,7 +47165,7 @@
         </is>
       </c>
       <c r="I1240" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1241">
@@ -47202,7 +47202,7 @@
         </is>
       </c>
       <c r="I1241" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1242">
@@ -47239,7 +47239,7 @@
         </is>
       </c>
       <c r="I1242" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1243">
@@ -47350,7 +47350,7 @@
         </is>
       </c>
       <c r="I1245" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1246">
@@ -47424,7 +47424,7 @@
         </is>
       </c>
       <c r="I1247" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1248">
@@ -47535,7 +47535,7 @@
         </is>
       </c>
       <c r="I1250" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1251">
@@ -47572,7 +47572,7 @@
         </is>
       </c>
       <c r="I1251" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1252">
@@ -47612,7 +47612,7 @@
         </is>
       </c>
       <c r="I1252" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1253">
@@ -47655,7 +47655,7 @@
         </is>
       </c>
       <c r="I1253" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1254">
@@ -47694,7 +47694,7 @@
         </is>
       </c>
       <c r="I1254" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1255">
@@ -47731,7 +47731,7 @@
         </is>
       </c>
       <c r="I1255" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1256">
@@ -47768,7 +47768,7 @@
         </is>
       </c>
       <c r="I1256" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1257">
@@ -47805,7 +47805,7 @@
         </is>
       </c>
       <c r="I1257" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1258">
@@ -47879,7 +47879,7 @@
         </is>
       </c>
       <c r="I1259" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1260">
@@ -47940,7 +47940,7 @@
         </is>
       </c>
       <c r="I1260" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1261">
@@ -48026,7 +48026,7 @@
         </is>
       </c>
       <c r="I1262" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1263">
@@ -48063,7 +48063,7 @@
         </is>
       </c>
       <c r="I1263" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1264">
@@ -48137,7 +48137,7 @@
         </is>
       </c>
       <c r="I1265" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1266">
@@ -48174,7 +48174,7 @@
         </is>
       </c>
       <c r="I1266" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1267">
@@ -48248,7 +48248,7 @@
         </is>
       </c>
       <c r="I1268" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1269">
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="I1269" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1270">
@@ -48322,7 +48322,7 @@
         </is>
       </c>
       <c r="I1270" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1271">
@@ -48471,7 +48471,7 @@
         </is>
       </c>
       <c r="I1274" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1275">
@@ -48508,7 +48508,7 @@
         </is>
       </c>
       <c r="I1275" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1276">
@@ -48619,7 +48619,7 @@
         </is>
       </c>
       <c r="I1278" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1279">
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="I1283" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1284">
@@ -48890,7 +48890,7 @@
         </is>
       </c>
       <c r="I1285" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1286">
@@ -48964,7 +48964,7 @@
         </is>
       </c>
       <c r="I1287" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1288">
@@ -49038,7 +49038,7 @@
         </is>
       </c>
       <c r="I1289" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1290">
@@ -49076,7 +49076,7 @@
         </is>
       </c>
       <c r="I1290" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1291">
@@ -49224,7 +49224,7 @@
         </is>
       </c>
       <c r="I1294" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1295">
@@ -49335,7 +49335,7 @@
         </is>
       </c>
       <c r="I1297" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1298">
@@ -49409,7 +49409,7 @@
         </is>
       </c>
       <c r="I1299" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1300">
@@ -49557,7 +49557,7 @@
         </is>
       </c>
       <c r="I1303" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1304">
@@ -49669,7 +49669,7 @@
         </is>
       </c>
       <c r="I1306" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1307">
@@ -49743,7 +49743,7 @@
         </is>
       </c>
       <c r="I1308" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1309">
@@ -49780,7 +49780,7 @@
         </is>
       </c>
       <c r="I1309" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1310">
@@ -49817,7 +49817,7 @@
         </is>
       </c>
       <c r="I1310" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1311">
@@ -49928,7 +49928,7 @@
         </is>
       </c>
       <c r="I1313" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1314">
@@ -49968,7 +49968,7 @@
         </is>
       </c>
       <c r="I1314" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1315">
@@ -50005,7 +50005,7 @@
         </is>
       </c>
       <c r="I1315" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1316">
@@ -50079,7 +50079,7 @@
         </is>
       </c>
       <c r="I1317" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1318">
@@ -50154,7 +50154,7 @@
         </is>
       </c>
       <c r="I1319" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1320">
@@ -50265,7 +50265,7 @@
         </is>
       </c>
       <c r="I1322" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1323">
@@ -50302,7 +50302,7 @@
         </is>
       </c>
       <c r="I1323" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1324">
@@ -50376,7 +50376,7 @@
         </is>
       </c>
       <c r="I1325" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1326">
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="I1328" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1329">
@@ -50524,7 +50524,7 @@
         </is>
       </c>
       <c r="I1329" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1330">
@@ -50673,7 +50673,7 @@
         </is>
       </c>
       <c r="I1333" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1334">
@@ -50710,7 +50710,7 @@
         </is>
       </c>
       <c r="I1334" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1335">
@@ -50785,7 +50785,7 @@
         </is>
       </c>
       <c r="I1336" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1337">
@@ -50896,7 +50896,7 @@
         </is>
       </c>
       <c r="I1339" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1340">
@@ -51081,7 +51081,7 @@
         </is>
       </c>
       <c r="I1344" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1345">
@@ -51192,7 +51192,7 @@
         </is>
       </c>
       <c r="I1347" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1348">
@@ -51229,7 +51229,7 @@
         </is>
       </c>
       <c r="I1348" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1349">
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="I1349" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1350">
@@ -51451,7 +51451,7 @@
         </is>
       </c>
       <c r="I1354" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1355">
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="I1356" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1357">
@@ -51562,7 +51562,7 @@
         </is>
       </c>
       <c r="I1357" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1358">
@@ -51599,7 +51599,7 @@
         </is>
       </c>
       <c r="I1358" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1359">
@@ -51673,7 +51673,7 @@
         </is>
       </c>
       <c r="I1360" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1361">
@@ -51710,7 +51710,7 @@
         </is>
       </c>
       <c r="I1361" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1362">
@@ -51747,7 +51747,7 @@
         </is>
       </c>
       <c r="I1362" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1363">
@@ -51784,7 +51784,7 @@
         </is>
       </c>
       <c r="I1363" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1364">
@@ -51858,7 +51858,7 @@
         </is>
       </c>
       <c r="I1365" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1366">
@@ -51895,7 +51895,7 @@
         </is>
       </c>
       <c r="I1366" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1367">
@@ -51969,7 +51969,7 @@
         </is>
       </c>
       <c r="I1368" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1369">
@@ -52043,7 +52043,7 @@
         </is>
       </c>
       <c r="I1370" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1371">
@@ -52117,7 +52117,7 @@
         </is>
       </c>
       <c r="I1372" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1373">
@@ -52154,7 +52154,7 @@
         </is>
       </c>
       <c r="I1373" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1374">
@@ -52265,7 +52265,7 @@
         </is>
       </c>
       <c r="I1376" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1377">
@@ -52302,7 +52302,7 @@
         </is>
       </c>
       <c r="I1377" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1378">
@@ -52384,7 +52384,7 @@
         </is>
       </c>
       <c r="I1379" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1380">
@@ -52421,7 +52421,7 @@
         </is>
       </c>
       <c r="I1380" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1381">
@@ -52495,7 +52495,7 @@
         </is>
       </c>
       <c r="I1382" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1383">
@@ -52532,7 +52532,7 @@
         </is>
       </c>
       <c r="I1383" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1384">
@@ -52569,7 +52569,7 @@
         </is>
       </c>
       <c r="I1384" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1385">
@@ -52606,7 +52606,7 @@
         </is>
       </c>
       <c r="I1385" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1386">
@@ -52643,7 +52643,7 @@
         </is>
       </c>
       <c r="I1386" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1387">
@@ -52680,7 +52680,7 @@
         </is>
       </c>
       <c r="I1387" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1388">
@@ -52717,7 +52717,7 @@
         </is>
       </c>
       <c r="I1388" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1389">
@@ -52754,7 +52754,7 @@
         </is>
       </c>
       <c r="I1389" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1390">
@@ -52791,7 +52791,7 @@
         </is>
       </c>
       <c r="I1390" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1391">
@@ -52828,7 +52828,7 @@
         </is>
       </c>
       <c r="I1391" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1392">
@@ -52865,7 +52865,7 @@
         </is>
       </c>
       <c r="I1392" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1393">
@@ -52902,7 +52902,7 @@
         </is>
       </c>
       <c r="I1393" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1394">
@@ -52976,7 +52976,7 @@
         </is>
       </c>
       <c r="I1395" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1396">
@@ -53013,7 +53013,7 @@
         </is>
       </c>
       <c r="I1396" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1397">
@@ -53201,7 +53201,7 @@
         </is>
       </c>
       <c r="I1401" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1402">
@@ -53460,7 +53460,7 @@
         </is>
       </c>
       <c r="I1408" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1409">
@@ -53497,7 +53497,7 @@
         </is>
       </c>
       <c r="I1409" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1410">
@@ -53534,7 +53534,7 @@
         </is>
       </c>
       <c r="I1410" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1411">
@@ -53571,7 +53571,7 @@
         </is>
       </c>
       <c r="I1411" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1412">
@@ -53608,7 +53608,7 @@
         </is>
       </c>
       <c r="I1412" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1413">
@@ -53651,7 +53651,7 @@
         </is>
       </c>
       <c r="I1413" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1414">
@@ -53688,7 +53688,7 @@
         </is>
       </c>
       <c r="I1414" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1415">
@@ -53836,7 +53836,7 @@
         </is>
       </c>
       <c r="I1418" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1419">
@@ -53873,7 +53873,7 @@
         </is>
       </c>
       <c r="I1419" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1420">
@@ -53910,7 +53910,7 @@
         </is>
       </c>
       <c r="I1420" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1421">
@@ -53947,7 +53947,7 @@
         </is>
       </c>
       <c r="I1421" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1422">
@@ -54095,7 +54095,7 @@
         </is>
       </c>
       <c r="I1425" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1426">
@@ -54132,7 +54132,7 @@
         </is>
       </c>
       <c r="I1426" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1427">
